--- a/z-support-files/Spectral-finalize/Spectral-files-for-ZIPs/TEI-rename-script/1871-FD-Rename-trans-final.xlsx
+++ b/z-support-files/Spectral-finalize/Spectral-files-for-ZIPs/TEI-rename-script/1871-FD-Rename-trans-final.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27322"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24740" windowHeight="15620" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24760" windowHeight="15620" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Reconvert" sheetId="2" r:id="rId1"/>
@@ -19,14 +19,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="74">
   <si>
     <t>orig</t>
   </si>
   <si>
-    <t>reg</t>
-  </si>
-  <si>
     <t>liv_000095_0001</t>
   </si>
   <si>
@@ -232,6 +229,18 @@
   </si>
   <si>
     <t>trans</t>
+  </si>
+  <si>
+    <t>current</t>
+  </si>
+  <si>
+    <t>new</t>
+  </si>
+  <si>
+    <t>step 1</t>
+  </si>
+  <si>
+    <t>step 2</t>
   </si>
 </sst>
 </file>
@@ -280,8 +289,54 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="87">
+  <cellStyleXfs count="133">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -372,7 +427,7 @@
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="87">
+  <cellStyles count="133">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -416,6 +471,29 @@
     <cellStyle name="Followed Hyperlink" xfId="82" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="84" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="86" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="88" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="90" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="92" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="94" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="96" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="98" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="100" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="102" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="104" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="106" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="108" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="110" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="112" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="114" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="116" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="118" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="120" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="122" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="124" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="126" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="128" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="130" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="132" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -459,6 +537,29 @@
     <cellStyle name="Hyperlink" xfId="81" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="83" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="85" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="87" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="89" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="91" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="93" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="95" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="97" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="99" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="101" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="103" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="105" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="107" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="109" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="111" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="113" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="115" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="117" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="119" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="121" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="123" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="125" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="127" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="129" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="131" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -788,402 +889,516 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C35"/>
+  <dimension ref="A1:E36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="D2" sqref="D2:E36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="15.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B3" t="s">
         <v>1</v>
       </c>
-      <c r="B1" t="s">
-        <v>70</v>
-      </c>
-      <c r="C1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" t="s">
+      <c r="D3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B4" t="s">
         <v>2</v>
       </c>
-      <c r="B2" t="s">
+      <c r="D4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E4" t="s">
         <v>36</v>
       </c>
-      <c r="C2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" t="s">
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B5" t="s">
         <v>4</v>
       </c>
-      <c r="B3" t="s">
+      <c r="D5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
         <v>37</v>
       </c>
-      <c r="C3" t="s">
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
+        <v>41</v>
+      </c>
+      <c r="B6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" t="s">
+        <v>43</v>
+      </c>
+      <c r="B7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" t="s">
+        <v>45</v>
+      </c>
+      <c r="B8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" t="s">
+        <v>47</v>
+      </c>
+      <c r="B9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" t="s">
+        <v>50</v>
+      </c>
+      <c r="B10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" t="s">
+        <v>51</v>
+      </c>
+      <c r="B11" t="s">
+        <v>13</v>
+      </c>
+      <c r="D11" t="s">
+        <v>13</v>
+      </c>
+      <c r="E11" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" t="s">
+        <v>52</v>
+      </c>
+      <c r="B12" t="s">
+        <v>14</v>
+      </c>
+      <c r="D12" t="s">
+        <v>14</v>
+      </c>
+      <c r="E12" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" t="s">
+        <v>49</v>
+      </c>
+      <c r="B13" t="s">
+        <v>16</v>
+      </c>
+      <c r="D13" t="s">
+        <v>16</v>
+      </c>
+      <c r="E13" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" t="s">
+        <v>48</v>
+      </c>
+      <c r="B14" t="s">
+        <v>17</v>
+      </c>
+      <c r="D14" t="s">
+        <v>17</v>
+      </c>
+      <c r="E14" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" t="s">
+        <v>46</v>
+      </c>
+      <c r="B15" t="s">
+        <v>18</v>
+      </c>
+      <c r="D15" t="s">
+        <v>18</v>
+      </c>
+      <c r="E15" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" t="s">
+        <v>44</v>
+      </c>
+      <c r="B16" t="s">
+        <v>15</v>
+      </c>
+      <c r="D16" t="s">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" t="s">
+        <v>42</v>
+      </c>
+      <c r="B17" t="s">
+        <v>12</v>
+      </c>
+      <c r="D17" t="s">
+        <v>12</v>
+      </c>
+      <c r="E17" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" t="s">
+        <v>40</v>
+      </c>
+      <c r="B18" t="s">
+        <v>9</v>
+      </c>
+      <c r="D18" t="s">
+        <v>9</v>
+      </c>
+      <c r="E18" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" t="s">
+        <v>38</v>
+      </c>
+      <c r="B19" t="s">
+        <v>6</v>
+      </c>
+      <c r="D19" t="s">
+        <v>6</v>
+      </c>
+      <c r="E19" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" t="s">
+        <v>36</v>
+      </c>
+      <c r="B20" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" t="s">
+      <c r="D20" t="s">
         <v>3</v>
       </c>
-      <c r="B4" t="s">
-        <v>38</v>
-      </c>
-      <c r="C4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" t="s">
-        <v>39</v>
-      </c>
-      <c r="C5" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>40</v>
-      </c>
-      <c r="C6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" t="s">
-        <v>41</v>
-      </c>
-      <c r="C7" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" t="s">
-        <v>42</v>
-      </c>
-      <c r="C8" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" t="s">
-        <v>13</v>
-      </c>
-      <c r="B9" t="s">
-        <v>43</v>
-      </c>
-      <c r="C9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10" t="s">
-        <v>44</v>
-      </c>
-      <c r="C10" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" t="s">
-        <v>16</v>
-      </c>
-      <c r="B11" t="s">
-        <v>45</v>
-      </c>
-      <c r="C11" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" t="s">
-        <v>9</v>
-      </c>
-      <c r="B12" t="s">
-        <v>46</v>
-      </c>
-      <c r="C12" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" t="s">
+      <c r="E20" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" t="s">
+        <v>53</v>
+      </c>
+      <c r="B21" t="s">
         <v>19</v>
       </c>
-      <c r="B13" t="s">
-        <v>47</v>
-      </c>
-      <c r="C13" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" t="s">
-        <v>11</v>
-      </c>
-      <c r="B14" t="s">
-        <v>48</v>
-      </c>
-      <c r="C14" t="s">
+      <c r="D21" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" t="s">
-        <v>18</v>
-      </c>
-      <c r="B15" t="s">
-        <v>49</v>
-      </c>
-      <c r="C15" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16" t="s">
-        <v>17</v>
-      </c>
-      <c r="B16" t="s">
-        <v>50</v>
-      </c>
-      <c r="C16" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="A17" t="s">
-        <v>12</v>
-      </c>
-      <c r="B17" t="s">
-        <v>51</v>
-      </c>
-      <c r="C17" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" t="s">
-        <v>14</v>
-      </c>
-      <c r="B18" t="s">
-        <v>52</v>
-      </c>
-      <c r="C18" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19" t="s">
-        <v>15</v>
-      </c>
-      <c r="B19" t="s">
+      <c r="E21" t="s">
         <v>53</v>
       </c>
-      <c r="C19" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="A20" t="s">
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" t="s">
+        <v>55</v>
+      </c>
+      <c r="B22" t="s">
         <v>20</v>
       </c>
-      <c r="B20" t="s">
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22" t="s">
         <v>54</v>
       </c>
-      <c r="C20" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="A21" t="s">
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" t="s">
+        <v>57</v>
+      </c>
+      <c r="B23" t="s">
         <v>22</v>
       </c>
-      <c r="B21" t="s">
+      <c r="D23" t="s">
+        <v>22</v>
+      </c>
+      <c r="E23" t="s">
         <v>55</v>
       </c>
-      <c r="C21" t="s">
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" t="s">
+        <v>59</v>
+      </c>
+      <c r="B24" t="s">
+        <v>23</v>
+      </c>
+      <c r="D24" t="s">
+        <v>23</v>
+      </c>
+      <c r="E24" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" t="s">
+        <v>61</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="D25" t="s">
+        <v>25</v>
+      </c>
+      <c r="E25" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" t="s">
+        <v>63</v>
+      </c>
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>26</v>
+      </c>
+      <c r="E26" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" t="s">
+        <v>65</v>
+      </c>
+      <c r="B27" t="s">
+        <v>28</v>
+      </c>
+      <c r="D27" t="s">
+        <v>28</v>
+      </c>
+      <c r="E27" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" t="s">
+        <v>67</v>
+      </c>
+      <c r="B28" t="s">
+        <v>29</v>
+      </c>
+      <c r="D28" t="s">
+        <v>29</v>
+      </c>
+      <c r="E28" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" t="s">
+        <v>68</v>
+      </c>
+      <c r="B29" t="s">
+        <v>31</v>
+      </c>
+      <c r="D29" t="s">
+        <v>31</v>
+      </c>
+      <c r="E29" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" t="s">
+        <v>66</v>
+      </c>
+      <c r="B30" t="s">
+        <v>32</v>
+      </c>
+      <c r="D30" t="s">
+        <v>32</v>
+      </c>
+      <c r="E30" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" t="s">
+        <v>64</v>
+      </c>
+      <c r="B31" t="s">
+        <v>34</v>
+      </c>
+      <c r="D31" t="s">
+        <v>34</v>
+      </c>
+      <c r="E31" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" t="s">
+        <v>62</v>
+      </c>
+      <c r="B32" t="s">
+        <v>33</v>
+      </c>
+      <c r="D32" t="s">
+        <v>33</v>
+      </c>
+      <c r="E32" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" t="s">
+        <v>60</v>
+      </c>
+      <c r="B33" t="s">
+        <v>30</v>
+      </c>
+      <c r="D33" t="s">
+        <v>30</v>
+      </c>
+      <c r="E33" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" t="s">
+        <v>58</v>
+      </c>
+      <c r="B34" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34" t="s">
+        <v>27</v>
+      </c>
+      <c r="E34" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" t="s">
+        <v>56</v>
+      </c>
+      <c r="B35" t="s">
+        <v>24</v>
+      </c>
+      <c r="D35" t="s">
+        <v>24</v>
+      </c>
+      <c r="E35" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36" t="s">
+        <v>54</v>
+      </c>
+      <c r="B36" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="A22" t="s">
+      <c r="D36" t="s">
         <v>21</v>
       </c>
-      <c r="B22" t="s">
-        <v>56</v>
-      </c>
-      <c r="C22" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23" t="s">
-        <v>25</v>
-      </c>
-      <c r="B23" t="s">
-        <v>57</v>
-      </c>
-      <c r="C23" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="A24" t="s">
-        <v>23</v>
-      </c>
-      <c r="B24" t="s">
-        <v>58</v>
-      </c>
-      <c r="C24" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
-      <c r="A25" t="s">
-        <v>28</v>
-      </c>
-      <c r="B25" t="s">
-        <v>59</v>
-      </c>
-      <c r="C25" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
-      <c r="A26" t="s">
-        <v>24</v>
-      </c>
-      <c r="B26" t="s">
-        <v>60</v>
-      </c>
-      <c r="C26" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
-      <c r="A27" t="s">
-        <v>31</v>
-      </c>
-      <c r="B27" t="s">
-        <v>61</v>
-      </c>
-      <c r="C27" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3">
-      <c r="A28" t="s">
-        <v>26</v>
-      </c>
-      <c r="B28" t="s">
-        <v>62</v>
-      </c>
-      <c r="C28" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
-      <c r="A29" t="s">
-        <v>34</v>
-      </c>
-      <c r="B29" t="s">
-        <v>63</v>
-      </c>
-      <c r="C29" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3">
-      <c r="A30" t="s">
-        <v>27</v>
-      </c>
-      <c r="B30" t="s">
-        <v>64</v>
-      </c>
-      <c r="C30" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3">
-      <c r="A31" t="s">
-        <v>35</v>
-      </c>
-      <c r="B31" t="s">
-        <v>65</v>
-      </c>
-      <c r="C31" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3">
-      <c r="A32" t="s">
-        <v>29</v>
-      </c>
-      <c r="B32" t="s">
-        <v>66</v>
-      </c>
-      <c r="C32" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3">
-      <c r="A33" t="s">
-        <v>33</v>
-      </c>
-      <c r="B33" t="s">
-        <v>67</v>
-      </c>
-      <c r="C33" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3">
-      <c r="A34" t="s">
-        <v>30</v>
-      </c>
-      <c r="B34" t="s">
+      <c r="E36" t="s">
         <v>68</v>
-      </c>
-      <c r="C34" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3">
-      <c r="A35" t="s">
-        <v>32</v>
-      </c>
-      <c r="B35" t="s">
-        <v>69</v>
-      </c>
-      <c r="C35" t="s">
-        <v>22</v>
       </c>
     </row>
   </sheetData>
